--- a/1.xlsx
+++ b/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaScriptLaboratory\DiscordBot\CafeteriaBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43ABDE85-66BE-4D18-8091-69E917DAD4D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B4A019-C931-4AE8-8845-9E96A3D5BB0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="173">
   <si>
     <t>미니푸딩/바나나우유2</t>
   </si>
@@ -569,10 +569,6 @@
   </si>
   <si>
     <t>비엔나콘치즈볶음5.6.10.12.13.</t>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -882,7 +878,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -923,9 +919,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -938,9 +931,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -965,41 +955,44 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1007,244 +1000,244 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1433,7 +1426,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1442,7 +1435,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1754,8 +1747,8 @@
   <dimension ref="A1:AD59"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49:E49"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1765,557 +1758,533 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="112"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:30" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="106" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="107"/>
-      <c r="F2" s="106" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="107"/>
-      <c r="H2" s="106" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="I2" s="107"/>
-      <c r="J2" s="106" t="s">
+      <c r="I2" s="33"/>
+      <c r="J2" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="K2" s="107"/>
-      <c r="L2" s="106" t="s">
+      <c r="K2" s="33"/>
+      <c r="L2" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="M2" s="107"/>
-      <c r="N2" s="106" t="s">
+      <c r="M2" s="33"/>
+      <c r="N2" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="O2" s="107"/>
+      <c r="O2" s="33"/>
     </row>
     <row r="3" spans="1:30" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="106" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="107"/>
-      <c r="F3" s="106" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="107"/>
-      <c r="H3" s="106" t="s">
+      <c r="G3" s="33"/>
+      <c r="H3" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="107"/>
-      <c r="J3" s="106" t="s">
+      <c r="I3" s="33"/>
+      <c r="J3" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="K3" s="107"/>
-      <c r="L3" s="106" t="s">
+      <c r="K3" s="33"/>
+      <c r="L3" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="M3" s="107"/>
-      <c r="N3" s="106" t="s">
+      <c r="M3" s="33"/>
+      <c r="N3" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="O3" s="107"/>
+      <c r="O3" s="33"/>
     </row>
     <row r="4" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="85" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="85" t="s">
+      <c r="E4" s="41"/>
+      <c r="F4" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="86"/>
-      <c r="H4" s="85" t="s">
+      <c r="G4" s="41"/>
+      <c r="H4" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="86"/>
-      <c r="J4" s="85" t="s">
+      <c r="I4" s="41"/>
+      <c r="J4" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="K4" s="86"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="109"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="43"/>
     </row>
     <row r="5" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="81" t="s">
+      <c r="A5" s="39"/>
+      <c r="B5" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="81" t="s">
+      <c r="C5" s="35"/>
+      <c r="D5" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="81" t="s">
+      <c r="E5" s="35"/>
+      <c r="F5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="82"/>
-      <c r="H5" s="81" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="82"/>
-      <c r="J5" s="81" t="s">
+      <c r="I5" s="35"/>
+      <c r="J5" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="K5" s="82"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="103"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="37"/>
     </row>
     <row r="6" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
-      <c r="B6" s="81" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="81" t="s">
+      <c r="C6" s="35"/>
+      <c r="D6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="82"/>
-      <c r="F6" s="81" t="s">
+      <c r="E6" s="35"/>
+      <c r="F6" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="82"/>
-      <c r="H6" s="81" t="s">
+      <c r="G6" s="35"/>
+      <c r="H6" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="82"/>
-      <c r="J6" s="81" t="s">
+      <c r="I6" s="35"/>
+      <c r="J6" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="K6" s="82"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="102"/>
-      <c r="O6" s="103"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="37"/>
     </row>
     <row r="7" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="81" t="s">
+      <c r="A7" s="39"/>
+      <c r="B7" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="81" t="s">
+      <c r="C7" s="35"/>
+      <c r="D7" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="81" t="s">
+      <c r="E7" s="35"/>
+      <c r="F7" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="G7" s="82"/>
-      <c r="H7" s="81" t="s">
+      <c r="G7" s="35"/>
+      <c r="H7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="82"/>
-      <c r="J7" s="81" t="s">
+      <c r="I7" s="35"/>
+      <c r="J7" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="K7" s="82"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="103"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="37"/>
     </row>
     <row r="8" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
-      <c r="B8" s="81" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="81" t="s">
+      <c r="C8" s="35"/>
+      <c r="D8" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="82"/>
-      <c r="F8" s="81" t="s">
+      <c r="E8" s="35"/>
+      <c r="F8" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="82"/>
-      <c r="H8" s="81" t="s">
+      <c r="G8" s="35"/>
+      <c r="H8" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="82"/>
-      <c r="J8" s="81" t="s">
+      <c r="I8" s="35"/>
+      <c r="J8" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="K8" s="82"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="103"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="37"/>
     </row>
     <row r="9" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="81" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="82"/>
-      <c r="F9" s="81" t="s">
+      <c r="E9" s="35"/>
+      <c r="F9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="82"/>
-      <c r="H9" s="81" t="s">
+      <c r="G9" s="35"/>
+      <c r="H9" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="82"/>
-      <c r="J9" s="81" t="s">
+      <c r="I9" s="35"/>
+      <c r="J9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="82"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="105"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="45"/>
       <c r="AD9" s="5"/>
     </row>
     <row r="10" spans="1:30" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="24" t="s">
         <v>138</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="95" t="s">
+      <c r="D10" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="96"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="7" t="s">
         <v>144</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="50" t="s">
+      <c r="H10" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="51"/>
+      <c r="I10" s="49"/>
       <c r="J10" s="9" t="s">
         <v>62</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="L10" s="97"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="97"/>
-      <c r="O10" s="98"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="51"/>
     </row>
     <row r="11" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="87" t="s">
+      <c r="C11" s="55"/>
+      <c r="D11" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="E11" s="88"/>
-      <c r="F11" s="87" t="s">
+      <c r="E11" s="55"/>
+      <c r="F11" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="G11" s="88"/>
-      <c r="H11" s="87" t="s">
+      <c r="G11" s="55"/>
+      <c r="H11" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="I11" s="88"/>
-      <c r="J11" s="113" t="s">
-        <v>173</v>
-      </c>
-      <c r="K11" s="101"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="91"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="63"/>
     </row>
     <row r="12" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
-      <c r="B12" s="87" t="s">
+      <c r="A12" s="53"/>
+      <c r="B12" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="87" t="s">
+      <c r="C12" s="55"/>
+      <c r="D12" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="E12" s="88"/>
-      <c r="F12" s="87" t="s">
+      <c r="E12" s="55"/>
+      <c r="F12" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="G12" s="88"/>
-      <c r="H12" s="87" t="s">
+      <c r="G12" s="55"/>
+      <c r="H12" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="88"/>
-      <c r="J12" s="114" t="s">
-        <v>173</v>
-      </c>
-      <c r="K12" s="92"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="94"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="69"/>
     </row>
     <row r="13" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="99"/>
-      <c r="B13" s="87" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="87" t="s">
+      <c r="C13" s="55"/>
+      <c r="D13" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="88"/>
-      <c r="F13" s="87" t="s">
+      <c r="E13" s="55"/>
+      <c r="F13" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="88"/>
-      <c r="H13" s="87" t="s">
+      <c r="G13" s="55"/>
+      <c r="H13" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="I13" s="88"/>
-      <c r="J13" s="116" t="s">
-        <v>173</v>
-      </c>
-      <c r="K13" s="115" t="s">
-        <v>173</v>
-      </c>
-      <c r="L13" s="46"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="89"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="59"/>
     </row>
     <row r="14" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="86"/>
-      <c r="D14" s="85" t="s">
+      <c r="C14" s="41"/>
+      <c r="D14" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="86"/>
-      <c r="F14" s="85" t="s">
+      <c r="E14" s="41"/>
+      <c r="F14" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="G14" s="86"/>
-      <c r="H14" s="85" t="s">
+      <c r="G14" s="41"/>
+      <c r="H14" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I14" s="86"/>
-      <c r="J14" s="85" t="s">
-        <v>173</v>
-      </c>
-      <c r="K14" s="86"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="36"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="72"/>
     </row>
     <row r="15" spans="1:30" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="81" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="81" t="s">
+      <c r="C15" s="35"/>
+      <c r="D15" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="82"/>
-      <c r="F15" s="81" t="s">
+      <c r="E15" s="35"/>
+      <c r="F15" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="G15" s="82"/>
-      <c r="H15" s="81" t="s">
+      <c r="G15" s="35"/>
+      <c r="H15" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="82"/>
-      <c r="J15" s="81" t="s">
-        <v>173</v>
-      </c>
-      <c r="K15" s="82"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="32"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="74"/>
     </row>
     <row r="16" spans="1:30" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="81" t="s">
+      <c r="A16" s="39"/>
+      <c r="B16" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="81" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="E16" s="82"/>
-      <c r="F16" s="81" t="s">
+      <c r="E16" s="35"/>
+      <c r="F16" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="G16" s="82"/>
-      <c r="H16" s="81" t="s">
+      <c r="G16" s="35"/>
+      <c r="H16" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="82"/>
-      <c r="J16" s="81" t="s">
-        <v>173</v>
-      </c>
-      <c r="K16" s="82"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="84"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="76"/>
     </row>
     <row r="17" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
-      <c r="B17" s="81" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="81" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="82"/>
-      <c r="F17" s="81" t="s">
+      <c r="E17" s="35"/>
+      <c r="F17" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="G17" s="82"/>
-      <c r="H17" s="81" t="s">
+      <c r="G17" s="35"/>
+      <c r="H17" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="I17" s="82"/>
-      <c r="J17" s="81" t="s">
-        <v>173</v>
-      </c>
-      <c r="K17" s="82"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="32"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="74"/>
     </row>
     <row r="18" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="81" t="s">
+      <c r="A18" s="39"/>
+      <c r="B18" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="81" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="82"/>
-      <c r="F18" s="81" t="s">
+      <c r="E18" s="35"/>
+      <c r="F18" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="82"/>
-      <c r="H18" s="81" t="s">
+      <c r="G18" s="35"/>
+      <c r="H18" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="82"/>
-      <c r="J18" s="81" t="s">
-        <v>173</v>
-      </c>
-      <c r="K18" s="82"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="32"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="74"/>
     </row>
     <row r="19" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
-      <c r="B19" s="81" t="s">
+      <c r="A19" s="39"/>
+      <c r="B19" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="81" t="s">
+      <c r="C19" s="35"/>
+      <c r="D19" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="82"/>
-      <c r="F19" s="81" t="s">
+      <c r="E19" s="35"/>
+      <c r="F19" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="82"/>
-      <c r="H19" s="81" t="s">
+      <c r="G19" s="35"/>
+      <c r="H19" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="I19" s="82"/>
-      <c r="J19" s="81" t="s">
-        <v>173</v>
-      </c>
-      <c r="K19" s="82"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="32"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="74"/>
     </row>
     <row r="20" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="41"/>
-      <c r="B20" s="79" t="s">
+      <c r="A20" s="70"/>
+      <c r="B20" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="80"/>
-      <c r="D20" s="79" t="s">
+      <c r="C20" s="82"/>
+      <c r="D20" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="80"/>
-      <c r="F20" s="79" t="s">
+      <c r="E20" s="82"/>
+      <c r="F20" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="80"/>
-      <c r="H20" s="79" t="s">
-        <v>173</v>
-      </c>
-      <c r="I20" s="80"/>
-      <c r="J20" s="79" t="s">
-        <v>173</v>
-      </c>
-      <c r="K20" s="80"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="82"/>
       <c r="L20" s="77"/>
       <c r="M20" s="78"/>
       <c r="N20" s="77"/>
@@ -2323,198 +2292,198 @@
     </row>
     <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="60" t="s">
+      <c r="C21" s="80"/>
+      <c r="D21" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="61"/>
-      <c r="F21" s="60" t="s">
+      <c r="E21" s="80"/>
+      <c r="F21" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="G21" s="61"/>
-      <c r="H21" s="60" t="s">
+      <c r="G21" s="80"/>
+      <c r="H21" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="I21" s="61"/>
-      <c r="J21" s="60" t="s">
+      <c r="I21" s="80"/>
+      <c r="J21" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="K21" s="61"/>
-      <c r="L21" s="60" t="s">
+      <c r="K21" s="80"/>
+      <c r="L21" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="M21" s="61"/>
-      <c r="N21" s="60" t="s">
+      <c r="M21" s="80"/>
+      <c r="N21" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="O21" s="61"/>
+      <c r="O21" s="80"/>
     </row>
     <row r="22" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="42" t="s">
+      <c r="C22" s="84"/>
+      <c r="D22" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="42" t="s">
+      <c r="E22" s="84"/>
+      <c r="F22" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="G22" s="43"/>
-      <c r="H22" s="42" t="s">
+      <c r="G22" s="84"/>
+      <c r="H22" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="I22" s="43"/>
-      <c r="J22" s="42" t="s">
+      <c r="I22" s="84"/>
+      <c r="J22" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="K22" s="43"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="36"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="72"/>
     </row>
     <row r="23" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
-      <c r="B23" s="33" t="s">
+      <c r="A23" s="39"/>
+      <c r="B23" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="33" t="s">
+      <c r="C23" s="86"/>
+      <c r="D23" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="33" t="s">
+      <c r="E23" s="86"/>
+      <c r="F23" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="33" t="s">
+      <c r="G23" s="86"/>
+      <c r="H23" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="33" t="s">
+      <c r="I23" s="86"/>
+      <c r="J23" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="K23" s="34"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="32"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="74"/>
     </row>
     <row r="24" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="33" t="s">
+      <c r="A24" s="39"/>
+      <c r="B24" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="33" t="s">
+      <c r="C24" s="86"/>
+      <c r="D24" s="85" t="s">
         <v>172</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="33" t="s">
+      <c r="E24" s="86"/>
+      <c r="F24" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="33" t="s">
+      <c r="G24" s="86"/>
+      <c r="H24" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="33" t="s">
+      <c r="I24" s="86"/>
+      <c r="J24" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="K24" s="34"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="32"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="74"/>
     </row>
     <row r="25" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="33" t="s">
+      <c r="A25" s="39"/>
+      <c r="B25" s="85" t="s">
         <v>161</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="33" t="s">
+      <c r="C25" s="86"/>
+      <c r="D25" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="33" t="s">
+      <c r="E25" s="86"/>
+      <c r="F25" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="34"/>
-      <c r="H25" s="33" t="s">
+      <c r="G25" s="86"/>
+      <c r="H25" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="33" t="s">
+      <c r="I25" s="86"/>
+      <c r="J25" s="85" t="s">
         <v>162</v>
       </c>
-      <c r="K25" s="34"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="32"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="74"/>
     </row>
     <row r="26" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="33" t="s">
+      <c r="A26" s="39"/>
+      <c r="B26" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="33" t="s">
+      <c r="C26" s="86"/>
+      <c r="D26" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="33" t="s">
+      <c r="E26" s="86"/>
+      <c r="F26" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="34"/>
-      <c r="H26" s="33" t="s">
+      <c r="G26" s="86"/>
+      <c r="H26" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="33" t="s">
+      <c r="I26" s="86"/>
+      <c r="J26" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="K26" s="34"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="32"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="74"/>
     </row>
     <row r="27" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="33" t="s">
+      <c r="C27" s="86"/>
+      <c r="D27" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="33" t="s">
+      <c r="E27" s="86"/>
+      <c r="F27" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="34"/>
-      <c r="H27" s="33" t="s">
+      <c r="G27" s="86"/>
+      <c r="H27" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="29" t="s">
+      <c r="I27" s="86"/>
+      <c r="J27" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="K27" s="30"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="32"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="74"/>
     </row>
     <row r="28" spans="1:15" s="3" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
@@ -2526,10 +2495,10 @@
       <c r="C28" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="51"/>
+      <c r="E28" s="49"/>
       <c r="F28" s="9" t="s">
         <v>62</v>
       </c>
@@ -2542,451 +2511,427 @@
       <c r="I28" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="J28" s="29" t="s">
+      <c r="J28" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="55"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="90"/>
     </row>
     <row r="29" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="75" t="s">
+      <c r="A29" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="76"/>
-      <c r="D29" s="75" t="s">
+      <c r="C29" s="92"/>
+      <c r="D29" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="E29" s="76"/>
-      <c r="F29" s="75" t="s">
+      <c r="E29" s="92"/>
+      <c r="F29" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="76"/>
-      <c r="H29" s="75" t="s">
+      <c r="G29" s="92"/>
+      <c r="H29" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="I29" s="76"/>
-      <c r="J29" s="117" t="s">
-        <v>173</v>
-      </c>
-      <c r="K29" s="15"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="17"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="16"/>
     </row>
     <row r="30" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="71" t="s">
+      <c r="A30" s="53"/>
+      <c r="B30" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="72"/>
-      <c r="D30" s="71" t="s">
+      <c r="C30" s="94"/>
+      <c r="D30" s="93" t="s">
         <v>169</v>
       </c>
-      <c r="E30" s="72"/>
-      <c r="F30" s="71" t="s">
+      <c r="E30" s="94"/>
+      <c r="F30" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="72"/>
-      <c r="H30" s="71" t="s">
+      <c r="G30" s="94"/>
+      <c r="H30" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="I30" s="72"/>
-      <c r="J30" s="118" t="s">
-        <v>173</v>
-      </c>
-      <c r="K30" s="20"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="22"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="20"/>
     </row>
     <row r="31" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="73" t="s">
+      <c r="A31" s="119"/>
+      <c r="B31" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="74"/>
-      <c r="D31" s="73" t="s">
+      <c r="C31" s="96"/>
+      <c r="D31" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="74"/>
-      <c r="F31" s="73" t="s">
+      <c r="E31" s="96"/>
+      <c r="F31" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="G31" s="74"/>
-      <c r="H31" s="73" t="s">
+      <c r="G31" s="96"/>
+      <c r="H31" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="I31" s="74"/>
-      <c r="J31" s="118" t="s">
-        <v>173</v>
-      </c>
-      <c r="K31" s="20"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="22"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="20"/>
     </row>
     <row r="32" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="42" t="s">
+      <c r="C32" s="84"/>
+      <c r="D32" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="E32" s="43"/>
-      <c r="F32" s="42" t="s">
+      <c r="E32" s="84"/>
+      <c r="F32" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="G32" s="43"/>
-      <c r="H32" s="42" t="s">
+      <c r="G32" s="84"/>
+      <c r="H32" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="I32" s="43"/>
-      <c r="J32" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="K32" s="43"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="36"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="101"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="72"/>
     </row>
     <row r="33" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="69"/>
-      <c r="B33" s="33" t="s">
+      <c r="A33" s="98"/>
+      <c r="B33" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="33" t="s">
+      <c r="C33" s="86"/>
+      <c r="D33" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="33" t="s">
+      <c r="E33" s="86"/>
+      <c r="F33" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="G33" s="34"/>
-      <c r="H33" s="33" t="s">
+      <c r="G33" s="86"/>
+      <c r="H33" s="85" t="s">
         <v>151</v>
       </c>
-      <c r="I33" s="34"/>
-      <c r="J33" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="K33" s="34"/>
-      <c r="L33" s="64"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="32"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="74"/>
     </row>
     <row r="34" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="69"/>
-      <c r="B34" s="33" t="s">
+      <c r="A34" s="98"/>
+      <c r="B34" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="33" t="s">
+      <c r="C34" s="86"/>
+      <c r="D34" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="33" t="s">
+      <c r="E34" s="86"/>
+      <c r="F34" s="85" t="s">
         <v>157</v>
       </c>
-      <c r="G34" s="34"/>
-      <c r="H34" s="33" t="s">
+      <c r="G34" s="86"/>
+      <c r="H34" s="85" t="s">
         <v>170</v>
       </c>
-      <c r="I34" s="34"/>
-      <c r="J34" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="K34" s="34"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="32"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="102"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="74"/>
     </row>
     <row r="35" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="69"/>
-      <c r="B35" s="33" t="s">
+      <c r="A35" s="98"/>
+      <c r="B35" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="33" t="s">
+      <c r="C35" s="86"/>
+      <c r="D35" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="34"/>
-      <c r="F35" s="33" t="s">
+      <c r="E35" s="86"/>
+      <c r="F35" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="G35" s="34"/>
-      <c r="H35" s="33" t="s">
+      <c r="G35" s="86"/>
+      <c r="H35" s="85" t="s">
         <v>168</v>
       </c>
-      <c r="I35" s="34"/>
-      <c r="J35" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="K35" s="34"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="32"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="102"/>
+      <c r="M35" s="103"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="74"/>
     </row>
     <row r="36" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="69"/>
-      <c r="B36" s="33" t="s">
+      <c r="A36" s="98"/>
+      <c r="B36" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="33" t="s">
+      <c r="C36" s="86"/>
+      <c r="D36" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="33" t="s">
+      <c r="E36" s="86"/>
+      <c r="F36" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="G36" s="34"/>
-      <c r="H36" s="33" t="s">
+      <c r="G36" s="86"/>
+      <c r="H36" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="I36" s="34"/>
-      <c r="J36" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="K36" s="34"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="32"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="102"/>
+      <c r="M36" s="103"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="74"/>
     </row>
     <row r="37" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="69"/>
-      <c r="B37" s="33" t="s">
+      <c r="A37" s="98"/>
+      <c r="B37" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="33" t="s">
+      <c r="C37" s="86"/>
+      <c r="D37" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="E37" s="34"/>
-      <c r="F37" s="33" t="s">
+      <c r="E37" s="86"/>
+      <c r="F37" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="G37" s="34"/>
-      <c r="H37" s="33" t="s">
+      <c r="G37" s="86"/>
+      <c r="H37" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="I37" s="34"/>
-      <c r="J37" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="K37" s="34"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="32"/>
+      <c r="I37" s="86"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="102"/>
+      <c r="M37" s="103"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="74"/>
     </row>
     <row r="38" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="70"/>
-      <c r="B38" s="29" t="s">
+      <c r="A38" s="99"/>
+      <c r="B38" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="29" t="s">
+      <c r="C38" s="88"/>
+      <c r="D38" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="29" t="s">
+      <c r="E38" s="88"/>
+      <c r="F38" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="G38" s="30"/>
-      <c r="H38" s="29" t="s">
+      <c r="G38" s="88"/>
+      <c r="H38" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="I38" s="30"/>
-      <c r="J38" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="K38" s="30"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="63"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="28"/>
+      <c r="I38" s="88"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="88"/>
+      <c r="L38" s="106"/>
+      <c r="M38" s="107"/>
+      <c r="N38" s="104"/>
+      <c r="O38" s="105"/>
     </row>
     <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="60" t="s">
+      <c r="C39" s="80"/>
+      <c r="D39" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="E39" s="61"/>
-      <c r="F39" s="60" t="s">
+      <c r="E39" s="80"/>
+      <c r="F39" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="G39" s="61"/>
-      <c r="H39" s="60" t="s">
+      <c r="G39" s="80"/>
+      <c r="H39" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="I39" s="61"/>
-      <c r="J39" s="60" t="s">
+      <c r="I39" s="80"/>
+      <c r="J39" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="K39" s="61"/>
-      <c r="L39" s="60" t="s">
+      <c r="K39" s="80"/>
+      <c r="L39" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="M39" s="61"/>
-      <c r="N39" s="60" t="s">
+      <c r="M39" s="80"/>
+      <c r="N39" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="O39" s="61"/>
+      <c r="O39" s="80"/>
     </row>
     <row r="40" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="42" t="s">
+      <c r="C40" s="84"/>
+      <c r="D40" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="43"/>
-      <c r="F40" s="120" t="s">
-        <v>173</v>
-      </c>
-      <c r="G40" s="36"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="36"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="71"/>
+      <c r="O40" s="72"/>
     </row>
     <row r="41" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="40"/>
-      <c r="B41" s="33" t="s">
+      <c r="A41" s="39"/>
+      <c r="B41" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="33" t="s">
+      <c r="C41" s="86"/>
+      <c r="D41" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="34"/>
-      <c r="F41" s="119" t="s">
-        <v>173</v>
-      </c>
-      <c r="G41" s="32"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="32"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="74"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="74"/>
+      <c r="N41" s="73"/>
+      <c r="O41" s="74"/>
     </row>
     <row r="42" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="40"/>
-      <c r="B42" s="33" t="s">
+      <c r="A42" s="39"/>
+      <c r="B42" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="33" t="s">
+      <c r="C42" s="86"/>
+      <c r="D42" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="34"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="32"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="74"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="74"/>
     </row>
     <row r="43" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="40"/>
-      <c r="B43" s="33" t="s">
+      <c r="A43" s="39"/>
+      <c r="B43" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="34"/>
-      <c r="D43" s="33" t="s">
+      <c r="C43" s="86"/>
+      <c r="D43" s="85" t="s">
         <v>152</v>
       </c>
-      <c r="E43" s="34"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="32"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="86"/>
+      <c r="L43" s="73"/>
+      <c r="M43" s="74"/>
+      <c r="N43" s="73"/>
+      <c r="O43" s="74"/>
     </row>
     <row r="44" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="40"/>
-      <c r="B44" s="33" t="s">
+      <c r="A44" s="39"/>
+      <c r="B44" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="34"/>
-      <c r="D44" s="33" t="s">
+      <c r="C44" s="86"/>
+      <c r="D44" s="85" t="s">
         <v>171</v>
       </c>
-      <c r="E44" s="34"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="32"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="86"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="86"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="73"/>
+      <c r="O44" s="74"/>
     </row>
     <row r="45" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
-      <c r="B45" s="29" t="s">
+      <c r="A45" s="21"/>
+      <c r="B45" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="30"/>
-      <c r="D45" s="29" t="s">
+      <c r="C45" s="88"/>
+      <c r="D45" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="32"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="88"/>
+      <c r="H45" s="87"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="87"/>
+      <c r="K45" s="88"/>
+      <c r="L45" s="73"/>
+      <c r="M45" s="74"/>
+      <c r="N45" s="73"/>
+      <c r="O45" s="74"/>
     </row>
     <row r="46" spans="1:15" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
@@ -2995,245 +2940,587 @@
       <c r="B46" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F46" s="50"/>
-      <c r="G46" s="51"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="49"/>
       <c r="H46" s="9"/>
-      <c r="I46" s="24"/>
+      <c r="I46" s="22"/>
       <c r="J46" s="9"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="54"/>
-      <c r="O46" s="55"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="110"/>
+      <c r="M46" s="111"/>
+      <c r="N46" s="89"/>
+      <c r="O46" s="90"/>
     </row>
     <row r="47" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13"/>
-      <c r="B47" s="56" t="s">
+      <c r="A47" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="57"/>
-      <c r="D47" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="E47" s="57"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="58"/>
-      <c r="M47" s="59"/>
-      <c r="N47" s="58"/>
-      <c r="O47" s="59"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="113"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="113"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="113"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="60"/>
+      <c r="O47" s="61"/>
     </row>
     <row r="48" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="44" t="s">
+      <c r="A48" s="53"/>
+      <c r="B48" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="E48" s="45"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="49"/>
-      <c r="N48" s="48"/>
-      <c r="O48" s="49"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="114"/>
+      <c r="E48" s="115"/>
+      <c r="F48" s="114"/>
+      <c r="G48" s="115"/>
+      <c r="H48" s="114"/>
+      <c r="I48" s="115"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="67"/>
+      <c r="N48" s="66"/>
+      <c r="O48" s="67"/>
     </row>
     <row r="49" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="18"/>
-      <c r="B49" s="44" t="s">
+      <c r="A49" s="119"/>
+      <c r="B49" s="114" t="s">
         <v>81</v>
       </c>
-      <c r="C49" s="45"/>
-      <c r="D49" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="E49" s="45"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="46"/>
-      <c r="O49" s="47"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="114"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="115"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="115"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="116"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="116"/>
     </row>
     <row r="50" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="39" t="s">
+      <c r="A50" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="43"/>
-      <c r="D50" s="42" t="s">
+      <c r="C50" s="84"/>
+      <c r="D50" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="E50" s="43"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="36"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="36"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="84"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="84"/>
+      <c r="J50" s="83"/>
+      <c r="K50" s="84"/>
+      <c r="L50" s="71"/>
+      <c r="M50" s="72"/>
+      <c r="N50" s="71"/>
+      <c r="O50" s="72"/>
     </row>
     <row r="51" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="40"/>
-      <c r="B51" s="33" t="s">
+      <c r="A51" s="39"/>
+      <c r="B51" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="C51" s="34"/>
-      <c r="D51" s="33" t="s">
+      <c r="C51" s="86"/>
+      <c r="D51" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="E51" s="34"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="37"/>
-      <c r="O51" s="38"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="85"/>
+      <c r="G51" s="86"/>
+      <c r="H51" s="85"/>
+      <c r="I51" s="86"/>
+      <c r="J51" s="85"/>
+      <c r="K51" s="86"/>
+      <c r="L51" s="73"/>
+      <c r="M51" s="74"/>
+      <c r="N51" s="117"/>
+      <c r="O51" s="118"/>
     </row>
     <row r="52" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="40"/>
-      <c r="B52" s="33" t="s">
+      <c r="A52" s="39"/>
+      <c r="B52" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="34"/>
-      <c r="D52" s="33" t="s">
+      <c r="C52" s="86"/>
+      <c r="D52" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="E52" s="34"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="32"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="86"/>
+      <c r="H52" s="85"/>
+      <c r="I52" s="86"/>
+      <c r="J52" s="85"/>
+      <c r="K52" s="86"/>
+      <c r="L52" s="73"/>
+      <c r="M52" s="74"/>
+      <c r="N52" s="73"/>
+      <c r="O52" s="74"/>
     </row>
     <row r="53" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="40"/>
-      <c r="B53" s="33" t="s">
+      <c r="A53" s="39"/>
+      <c r="B53" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="C53" s="34"/>
-      <c r="D53" s="33" t="s">
+      <c r="C53" s="86"/>
+      <c r="D53" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="E53" s="34"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="32"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="86"/>
+      <c r="H53" s="85"/>
+      <c r="I53" s="86"/>
+      <c r="J53" s="85"/>
+      <c r="K53" s="86"/>
+      <c r="L53" s="73"/>
+      <c r="M53" s="74"/>
+      <c r="N53" s="73"/>
+      <c r="O53" s="74"/>
     </row>
     <row r="54" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="40"/>
-      <c r="B54" s="33" t="s">
+      <c r="A54" s="39"/>
+      <c r="B54" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="34"/>
-      <c r="D54" s="33" t="s">
+      <c r="C54" s="86"/>
+      <c r="D54" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="E54" s="34"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="32"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="86"/>
+      <c r="H54" s="85"/>
+      <c r="I54" s="86"/>
+      <c r="J54" s="85"/>
+      <c r="K54" s="86"/>
+      <c r="L54" s="73"/>
+      <c r="M54" s="74"/>
+      <c r="N54" s="73"/>
+      <c r="O54" s="74"/>
     </row>
     <row r="55" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="40"/>
-      <c r="B55" s="33" t="s">
+      <c r="A55" s="39"/>
+      <c r="B55" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="34"/>
-      <c r="D55" s="33" t="s">
+      <c r="C55" s="86"/>
+      <c r="D55" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="34"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="31"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="31"/>
-      <c r="O55" s="32"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="85"/>
+      <c r="I55" s="86"/>
+      <c r="J55" s="85"/>
+      <c r="K55" s="86"/>
+      <c r="L55" s="73"/>
+      <c r="M55" s="74"/>
+      <c r="N55" s="73"/>
+      <c r="O55" s="74"/>
     </row>
     <row r="56" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="41"/>
-      <c r="B56" s="29" t="s">
+      <c r="A56" s="70"/>
+      <c r="B56" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="30"/>
-      <c r="D56" s="29" t="s">
+      <c r="C56" s="88"/>
+      <c r="D56" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="E56" s="30"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="28"/>
+      <c r="E56" s="88"/>
+      <c r="F56" s="87"/>
+      <c r="G56" s="88"/>
+      <c r="H56" s="87"/>
+      <c r="I56" s="88"/>
+      <c r="J56" s="87"/>
+      <c r="K56" s="88"/>
+      <c r="L56" s="104"/>
+      <c r="M56" s="105"/>
+      <c r="N56" s="104"/>
+      <c r="O56" s="105"/>
     </row>
     <row r="57" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="370">
+  <mergeCells count="372">
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -3258,352 +3545,6 @@
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
